--- a/ofertas.xlsx
+++ b/ofertas.xlsx
@@ -26,40 +26,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Oferta</t>
-  </si>
-  <si>
     <t>Internet</t>
   </si>
   <si>
-    <t>Segurança</t>
-  </si>
-  <si>
     <t>Backup</t>
   </si>
   <si>
-    <t>Argumentacao</t>
-  </si>
-  <si>
-    <t>Apresentar valor futuro</t>
-  </si>
-  <si>
-    <t>Apresentar notícia de hackers</t>
-  </si>
-  <si>
-    <t>Apresentar problemas relacionados a perda de dados</t>
-  </si>
-  <si>
-    <t>Perguntas</t>
-  </si>
-  <si>
-    <t>Qual o seu provedor atual de internet</t>
-  </si>
-  <si>
-    <t>Qual o antivirus que utilizam</t>
-  </si>
-  <si>
-    <t>Qual ferramenta de backup sua empresa utiliza</t>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Show the future price</t>
+  </si>
+  <si>
+    <t>What is your internet provider</t>
+  </si>
+  <si>
+    <t>Show news about hackers</t>
+  </si>
+  <si>
+    <t>Show problems related to data loss</t>
+  </si>
+  <si>
+    <t>What antivirus do you use?</t>
+  </si>
+  <si>
+    <t>What backup tool does your company use?</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Argumentation</t>
+  </si>
+  <si>
+    <t>Questions</t>
   </si>
 </sst>
 </file>
@@ -103,10 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,36 +394,36 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,21 +431,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
